--- a/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_AF_R-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.6959583500128187</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3827160842785271</v>
+        <v>0.3827160842785272</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.5577838462996025</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4603145922422923</v>
+        <v>0.4620698458675163</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5065638510763774</v>
+        <v>0.5104907084557326</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6475271127119259</v>
+        <v>0.6488814718536767</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3080966821531766</v>
+        <v>0.3125117026285515</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5093164951791175</v>
+        <v>0.5120117342328097</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.524922651744717</v>
+        <v>0.5167700888223919</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.64327886752615</v>
+        <v>0.642590054695523</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.390279272394988</v>
+        <v>0.3918330091516261</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.5019917480792514</v>
+        <v>0.5028190583338052</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5257437315622729</v>
+        <v>0.5260126215066518</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.6569320430262586</v>
+        <v>0.6598826020398736</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3671867999608266</v>
+        <v>0.3645824596072139</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5524641747673849</v>
+        <v>0.5532656762143002</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6019358492230195</v>
+        <v>0.6018065119332296</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7402308404158315</v>
+        <v>0.7360583445994606</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4588525876530976</v>
+        <v>0.4601649267596841</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6006688454494467</v>
+        <v>0.6020572677914022</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6175183903764213</v>
+        <v>0.6143905154502614</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.732864543658642</v>
+        <v>0.7280159758196413</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.528904846133269</v>
+        <v>0.5366931587332828</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5659451385044996</v>
+        <v>0.564554437527416</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5955693157348014</v>
+        <v>0.5926086697519299</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7223537702598724</v>
+        <v>0.724844694822693</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4773023479524752</v>
+        <v>0.4704796983943374</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.736313156335232</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4933100638521435</v>
+        <v>0.4933100638521436</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5792677070791888</v>
@@ -833,7 +833,7 @@
         <v>0.7448559795196501</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.5203137720524793</v>
+        <v>0.5203137720524794</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5449892786654935</v>
+        <v>0.5491913285081089</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5355976097668218</v>
+        <v>0.5396261661676509</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7112178424650513</v>
+        <v>0.7188705153771828</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.4866999493381201</v>
+        <v>0.4859250561925232</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.530878661411128</v>
+        <v>0.5350042232562517</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6171533132113904</v>
+        <v>0.6153092112583228</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.6972994362675442</v>
+        <v>0.6968779580849573</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4458744462139844</v>
+        <v>0.4460358835963267</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.553113353410592</v>
+        <v>0.5536389638391624</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.5877993326824561</v>
+        <v>0.5854198150859773</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7189193924143157</v>
+        <v>0.7201593269365667</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.4795321405245609</v>
+        <v>0.4805295451332293</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6194567255377025</v>
+        <v>0.6198878982893273</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6131510300169288</v>
+        <v>0.6143898506715532</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7829166320604416</v>
+        <v>0.7902612027844951</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6057464965692113</v>
+        <v>0.6014548324309243</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.6122773305647374</v>
+        <v>0.6146264719628851</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.6941293144517275</v>
+        <v>0.6946984751348896</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7726888748637356</v>
+        <v>0.7732118623234921</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5357105898614924</v>
+        <v>0.5411255174719505</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.6082775671430671</v>
+        <v>0.6100615007179121</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6436173358868381</v>
+        <v>0.640232905679304</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7680914345667277</v>
+        <v>0.7713516909211776</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5540349820455778</v>
+        <v>0.5538011860737114</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5666883709996918</v>
+        <v>0.5677217751151168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6132817422311744</v>
+        <v>0.6099772790731973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6977747034573903</v>
+        <v>0.6969943786494451</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.5317009271088105</v>
+        <v>0.538256512466165</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.5550109666384354</v>
+        <v>0.5591334349386157</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6152366800832096</v>
+        <v>0.6128043050312673</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.6889731226107156</v>
+        <v>0.6924755134971092</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.5227044605731721</v>
+        <v>0.5208622950186832</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5718981643521296</v>
+        <v>0.5719115706260687</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6257888436782058</v>
+        <v>0.6269927622870958</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7071045515981312</v>
+        <v>0.7058883516420035</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.5386823540021095</v>
+        <v>0.5391886442684676</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6437307814607166</v>
+        <v>0.6457419112796059</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6883029419912619</v>
+        <v>0.6881055725836084</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7670628047075834</v>
+        <v>0.7676185160076856</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.618411344319392</v>
+        <v>0.6234100591466434</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6337193714730205</v>
+        <v>0.6326998582751802</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.6866656331638125</v>
+        <v>0.6870889150076307</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7614542099241272</v>
+        <v>0.7590427799651078</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5907457700089781</v>
+        <v>0.5887693121782749</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6276311121929965</v>
+        <v>0.6279595201984677</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.6783186526085508</v>
+        <v>0.6796199312452661</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7545978191677482</v>
+        <v>0.7539977571252396</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.5950689926122829</v>
+        <v>0.5963615937645439</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.7655349663539404</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.5787047566097089</v>
+        <v>0.578704756609709</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5802248201166643</v>
+        <v>0.5770593838404539</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5895157100776555</v>
+        <v>0.5960074258392667</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.725776041713904</v>
+        <v>0.7232458928977357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5276991341354852</v>
+        <v>0.5268585401039904</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5699393786227519</v>
+        <v>0.5715578644478044</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.6837465217498891</v>
+        <v>0.682534585218306</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7347673211402302</v>
+        <v>0.7356932878750478</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.5601876657070757</v>
+        <v>0.561027286181178</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5859301259607752</v>
+        <v>0.5819376368034731</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6526690448315304</v>
+        <v>0.6516483228505966</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7414861214939602</v>
+        <v>0.7403737218621382</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.554973391437886</v>
+        <v>0.5567736022355799</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.6678373789230585</v>
+        <v>0.6619181624483798</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6764991710062389</v>
+        <v>0.6766962387874931</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7960838431499121</v>
+        <v>0.7933037245775478</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6024265583818433</v>
+        <v>0.6049935830235772</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6527555513134391</v>
+        <v>0.6566801026746441</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7622000917702476</v>
+        <v>0.762220152587708</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8027184718781816</v>
+        <v>0.8024286539621771</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.6168624253030371</v>
+        <v>0.6209450456931829</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6500674445250265</v>
+        <v>0.647471204164666</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.7083903871386049</v>
+        <v>0.7110310088658469</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7913670653336216</v>
+        <v>0.7882681195852295</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6028419301914827</v>
+        <v>0.6043035003002798</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.758985584276554</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.6269269666774234</v>
+        <v>0.6269269666774233</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5929795101645483</v>
+        <v>0.5902004908220402</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5386618114474591</v>
+        <v>0.5403716302122414</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6925358236661111</v>
+        <v>0.6917720375672085</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5824806577270878</v>
+        <v>0.5797357750307209</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.616511948061772</v>
+        <v>0.6170860837049544</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.6381295120701274</v>
+        <v>0.6424704904131814</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.7427268160566713</v>
+        <v>0.7407375364631076</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6022019241800873</v>
+        <v>0.5994377432485416</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6179958531029257</v>
+        <v>0.617985631284233</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.6072578211593966</v>
+        <v>0.6068509729325201</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7287239860798996</v>
+        <v>0.727279229585621</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.603059133330234</v>
+        <v>0.6034181563175901</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6841022428329075</v>
+        <v>0.6877464823386119</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6406401271950382</v>
+        <v>0.6421322919905966</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7765403610780589</v>
+        <v>0.7779628443497694</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.6587217338219663</v>
+        <v>0.6558842192051726</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7064348184080004</v>
+        <v>0.7064376939931992</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7297846656468078</v>
+        <v>0.7367911217940381</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8206836505522977</v>
+        <v>0.8187925600542331</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6619812221715564</v>
+        <v>0.661383622859669</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6850649135341781</v>
+        <v>0.6853923514501455</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.6751234011235121</v>
+        <v>0.6791338156746916</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7880464202467043</v>
+        <v>0.7852333607610981</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.6506493223968327</v>
+        <v>0.6523617846642012</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.7172324909850962</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.6216761277004753</v>
+        <v>0.6216761277004754</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.6454768576415097</v>
@@ -1377,7 +1377,7 @@
         <v>0.7643546034377611</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.6158408068331278</v>
+        <v>0.6158408068331277</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6209598307322483</v>
+        <v>0.6195056917758183</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6102217464432416</v>
+        <v>0.6126721046495949</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6589120006127793</v>
+        <v>0.6649373533757104</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.5835711746275737</v>
+        <v>0.5832116786575368</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.5944365137014661</v>
+        <v>0.5949680695721471</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.6523713718541528</v>
+        <v>0.6547708154547509</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7627593308941389</v>
+        <v>0.7579585167582136</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5735695544767235</v>
+        <v>0.5789845054736145</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.6221410059751782</v>
+        <v>0.6197618250802989</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.6494105090798746</v>
+        <v>0.6476775789170157</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.7291527341961945</v>
+        <v>0.7320991777425777</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.5900515442149714</v>
+        <v>0.5894221115395707</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7240264905988351</v>
+        <v>0.72533680724806</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7196471313439017</v>
+        <v>0.7215094639677928</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7639746608107855</v>
+        <v>0.7691190029807087</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.6639268158035428</v>
+        <v>0.6636851269490066</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.6893817177116081</v>
+        <v>0.6953605658647217</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.7515217464119798</v>
+        <v>0.7524904498773001</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8474854249495842</v>
+        <v>0.8453629210016316</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6468286631321187</v>
+        <v>0.6450095297135106</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6939884497515142</v>
+        <v>0.6920079320538384</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7223791230651716</v>
+        <v>0.7226384022425286</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.7989734316092203</v>
+        <v>0.7949401976204801</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6413441117187967</v>
+        <v>0.6431542235858151</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.7799354840111925</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6734736960384641</v>
+        <v>0.6734736960384642</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.6973752273316062</v>
@@ -1513,7 +1513,7 @@
         <v>0.8158873651398074</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.6916842695199914</v>
+        <v>0.6916842695199913</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.6562842298586945</v>
+        <v>0.6585017708709295</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6365817495901303</v>
+        <v>0.6401062721564991</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.727135370792733</v>
+        <v>0.7312244521961705</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6294708291575208</v>
+        <v>0.6265332247685741</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.6365154915471394</v>
+        <v>0.6477852243906262</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.6220606462745785</v>
+        <v>0.626669487974306</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.7921925870858935</v>
+        <v>0.7905652781256988</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.6707407776703934</v>
+        <v>0.6710394714362834</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.667331005541723</v>
+        <v>0.6662971391724685</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.6486650053948171</v>
+        <v>0.6509609422080551</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.7791368061536693</v>
+        <v>0.7815877364642149</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.6669771008636285</v>
+        <v>0.6644680322390787</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7848983875065979</v>
+        <v>0.7792515387643262</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7689092538605976</v>
+        <v>0.7649459078548257</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8225151572362263</v>
+        <v>0.8277529842726161</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7175832360826075</v>
+        <v>0.7170351176229451</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7429042767615436</v>
+        <v>0.7536455022242811</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.7220399632815555</v>
+        <v>0.7208991143970188</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.8762736701699153</v>
+        <v>0.8797720718302201</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.7348882610160075</v>
+        <v>0.737727591366661</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.7498577144878564</v>
+        <v>0.7458784064011861</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.7285748968784569</v>
+        <v>0.7271277429994866</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.8457882763039787</v>
+        <v>0.8455703915868824</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.7185701782827516</v>
+        <v>0.7175640203032239</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.7394009288049429</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.5699882276435326</v>
+        <v>0.5699882276435325</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.6124500715253164</v>
@@ -1649,7 +1649,7 @@
         <v>0.7503946286360461</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.57610117350936</v>
+        <v>0.5761011735093599</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.5895959911590974</v>
+        <v>0.5892186302267477</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6029960460006787</v>
+        <v>0.6018979610086747</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.7252579731361181</v>
+        <v>0.722735961558566</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5509378898548398</v>
+        <v>0.5483933131303629</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.5966757586258876</v>
+        <v>0.596819636909563</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6526731003065218</v>
+        <v>0.6525502219221899</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7453501026931323</v>
+        <v>0.7471208737010667</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.5669832489508545</v>
+        <v>0.5682126630211883</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.5969502185631814</v>
+        <v>0.5974177738967191</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.6331310428957156</v>
+        <v>0.6320030170039668</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.7392249884458382</v>
+        <v>0.7391325362013541</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.5643995916345295</v>
+        <v>0.5645825786395119</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6239272982458312</v>
+        <v>0.6245011751578173</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6357393794090347</v>
+        <v>0.6371852831719508</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.7555973161638432</v>
+        <v>0.7550769432122362</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.587213656398439</v>
+        <v>0.5872145850178613</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.63018528379203</v>
+        <v>0.6302650562343636</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.6861527292827271</v>
+        <v>0.6842175634522175</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7748644464845192</v>
+        <v>0.7755165052232785</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.5961874028443134</v>
+        <v>0.5965986044490023</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.621649986495961</v>
+        <v>0.6216204807606376</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.6557008300055926</v>
+        <v>0.6559980911274189</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.761115136322835</v>
+        <v>0.7620546231573023</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.5891579818358557</v>
+        <v>0.5875899590350148</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>227040</v>
+        <v>227905</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>228534</v>
+        <v>230306</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>271614</v>
+        <v>272182</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>125072</v>
+        <v>126864</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>238100</v>
+        <v>239360</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>225327</v>
+        <v>221827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>254581</v>
+        <v>254308</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>141481</v>
+        <v>142044</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>482272</v>
+        <v>483066</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>462866</v>
+        <v>463103</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>535543</v>
+        <v>537948</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>282169</v>
+        <v>280167</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>272490</v>
+        <v>272886</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>271561</v>
+        <v>271503</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>310499</v>
+        <v>308749</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>186271</v>
+        <v>186803</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>280806</v>
+        <v>281455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>265074</v>
+        <v>263731</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>290035</v>
+        <v>288116</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>191734</v>
+        <v>194558</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>543713</v>
+        <v>542376</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>524341</v>
+        <v>521734</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>588876</v>
+        <v>590906</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>366788</v>
+        <v>361545</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>400834</v>
+        <v>403924</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>365822</v>
+        <v>368574</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>417557</v>
+        <v>422050</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>231453</v>
+        <v>231085</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>331533</v>
+        <v>334110</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>375293</v>
+        <v>374171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>390589</v>
+        <v>390353</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>222544</v>
+        <v>222624</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>752228</v>
+        <v>752942</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>758919</v>
+        <v>755847</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>824779</v>
+        <v>826201</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>467387</v>
+        <v>468359</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>455604</v>
+        <v>455921</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>418793</v>
+        <v>419639</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>459652</v>
+        <v>463964</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>288066</v>
+        <v>286025</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>382367</v>
+        <v>383834</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>422102</v>
+        <v>422448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>432819</v>
+        <v>433112</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>267382</v>
+        <v>270085</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>827250</v>
+        <v>829676</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>830987</v>
+        <v>826618</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>881191</v>
+        <v>884932</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>540003</v>
+        <v>539775</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>361311</v>
+        <v>361970</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>417444</v>
+        <v>415195</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>466275</v>
+        <v>465753</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>326650</v>
+        <v>330677</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>382272</v>
+        <v>385111</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>434687</v>
+        <v>432969</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>449961</v>
+        <v>452249</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>324470</v>
+        <v>323326</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>758535</v>
+        <v>758553</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>868101</v>
+        <v>869771</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>934313</v>
+        <v>932706</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>665327</v>
+        <v>665952</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>410432</v>
+        <v>411714</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>468509</v>
+        <v>468375</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>512575</v>
+        <v>512946</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>379920</v>
+        <v>382991</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>436483</v>
+        <v>435781</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>485155</v>
+        <v>485454</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>497298</v>
+        <v>495723</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>366707</v>
+        <v>365480</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>832457</v>
+        <v>832892</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>940970</v>
+        <v>942776</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>997067</v>
+        <v>996274</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>734970</v>
+        <v>736567</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>301222</v>
+        <v>299579</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>359959</v>
+        <v>363923</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>466090</v>
+        <v>464465</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>365293</v>
+        <v>364712</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>293885</v>
+        <v>294719</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>418002</v>
+        <v>417261</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>476921</v>
+        <v>477522</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>407695</v>
+        <v>408306</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>606314</v>
+        <v>602183</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>797524</v>
+        <v>796277</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>957460</v>
+        <v>956024</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>788074</v>
+        <v>790630</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>346706</v>
+        <v>343633</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>413072</v>
+        <v>413192</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>511241</v>
+        <v>509456</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>417023</v>
+        <v>418800</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>336588</v>
+        <v>338612</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>465964</v>
+        <v>465976</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>521026</v>
+        <v>520838</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>448942</v>
+        <v>451913</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>672683</v>
+        <v>669996</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>865613</v>
+        <v>868839</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1021870</v>
+        <v>1017869</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>856048</v>
+        <v>858124</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>228811</v>
+        <v>227738</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>230223</v>
+        <v>230954</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>327234</v>
+        <v>326873</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>352435</v>
+        <v>350774</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>249062</v>
+        <v>249294</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>283791</v>
+        <v>285721</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>366552</v>
+        <v>365570</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>361071</v>
+        <v>359414</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>488125</v>
+        <v>488117</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>529602</v>
+        <v>529247</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>703975</v>
+        <v>702579</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>726472</v>
+        <v>726904</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>263972</v>
+        <v>265378</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>273808</v>
+        <v>274446</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>366928</v>
+        <v>367600</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>398566</v>
+        <v>396849</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>285390</v>
+        <v>285391</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>324552</v>
+        <v>327668</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>405025</v>
+        <v>404092</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>396914</v>
+        <v>396556</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>541100</v>
+        <v>541359</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>588789</v>
+        <v>592287</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>761283</v>
+        <v>758565</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>783801</v>
+        <v>785864</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>180595</v>
+        <v>180172</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>186179</v>
+        <v>186926</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>219671</v>
+        <v>221679</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>236908</v>
+        <v>236762</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>203852</v>
+        <v>204035</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>227332</v>
+        <v>228168</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>287399</v>
+        <v>285590</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>249971</v>
+        <v>252331</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>394292</v>
+        <v>392784</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>424436</v>
+        <v>423303</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>517825</v>
+        <v>519917</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>496693</v>
+        <v>496163</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>210570</v>
+        <v>210951</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>219564</v>
+        <v>220133</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>254697</v>
+        <v>256412</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>269530</v>
+        <v>269432</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>236412</v>
+        <v>238463</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>261883</v>
+        <v>262220</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>319323</v>
+        <v>318523</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>281898</v>
+        <v>281105</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>439826</v>
+        <v>438571</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>472126</v>
+        <v>472296</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>567409</v>
+        <v>564545</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>539870</v>
+        <v>541394</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>137743</v>
+        <v>138208</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>157756</v>
+        <v>158629</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>186243</v>
+        <v>187291</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>191692</v>
+        <v>190798</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>212538</v>
+        <v>216301</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>238595</v>
+        <v>240363</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>314914</v>
+        <v>314267</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>303842</v>
+        <v>303977</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>362889</v>
+        <v>362326</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>409550</v>
+        <v>410999</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>509287</v>
+        <v>510889</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>505250</v>
+        <v>503350</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>164737</v>
+        <v>163552</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>190549</v>
+        <v>189567</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>210673</v>
+        <v>212015</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>218525</v>
+        <v>218358</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>248062</v>
+        <v>251648</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>276943</v>
+        <v>276505</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>348338</v>
+        <v>349729</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>332900</v>
+        <v>334186</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>407766</v>
+        <v>405602</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>460003</v>
+        <v>459089</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>552854</v>
+        <v>552711</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>544333</v>
+        <v>543571</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>1929173</v>
+        <v>1927939</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2053656</v>
+        <v>2049916</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2450664</v>
+        <v>2442142</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1930290</v>
+        <v>1921374</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2015106</v>
+        <v>2015592</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2305234</v>
+        <v>2304800</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2628031</v>
+        <v>2634274</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2097022</v>
+        <v>2101569</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>3969270</v>
+        <v>3972379</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>4392499</v>
+        <v>4384673</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5104294</v>
+        <v>5103655</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>4064920</v>
+        <v>4066238</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2041506</v>
+        <v>2043384</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2165171</v>
+        <v>2170096</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2553181</v>
+        <v>2551423</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2057387</v>
+        <v>2057390</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2128276</v>
+        <v>2128545</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2423483</v>
+        <v>2416648</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2732095</v>
+        <v>2734394</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2205035</v>
+        <v>2206556</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>4133505</v>
+        <v>4133309</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>4549083</v>
+        <v>4551145</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5255444</v>
+        <v>5261931</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>4243235</v>
+        <v>4231942</v>
       </c>
     </row>
     <row r="36">
